--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>FName</x:t>
   </x:si>
@@ -29,6 +29,9 @@
   </x:si>
   <x:si>
     <x:t>Income</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Age</x:t>
   </x:si>
   <x:si>
     <x:t>Table Headers</x:t>
@@ -71,9 +74,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="2">
+  <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="166" formatCode="0.00"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -284,7 +288,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="17">
+  <x:cellStyleXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -336,8 +340,11 @@
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="17">
+  <x:cellXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -403,6 +410,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -414,21 +425,24 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F6" totalsRowCount="1">
-  <x:autoFilter ref="B2:F5"/>
-  <x:tableColumns count="5">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G6" totalsRowCount="1">
+  <x:autoFilter ref="B2:G5"/>
+  <x:tableColumns count="6">
     <x:tableColumn id="1" name="FName" totalsRowLabel="Sum Of Income"/>
     <x:tableColumn id="2" name="LName"/>
     <x:tableColumn id="3" name="Outcast"/>
     <x:tableColumn id="4" name="DOB"/>
     <x:tableColumn id="5" name="Income" totalsRowFunction="sum"/>
+    <x:tableColumn id="6" name="Age" totalsRowFunction="average">
+      <x:calculatedColumnFormula>(DATE(2017, 10, 3) - E3) / 365</x:calculatedColumnFormula>
+    </x:tableColumn>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Headers" displayName="Headers" ref="H2:H8" totalsRowCount="1">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Headers" displayName="Headers" ref="I2:I9" totalsRowCount="1">
   <x:tableColumns count="1">
     <x:tableColumn id="1" name="Table Headers" totalsRowFunction="custom">
       <x:totalsRowFormula>CONCATENATE("Count: ", CountA(Headers[Table Headers]))</x:totalsRowFormula>
@@ -439,7 +453,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="J2:J5" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="K2:K5" totalsRowShown="0">
   <x:tableColumns count="1">
     <x:tableColumn id="1" name="Names"/>
   </x:tableColumns>
@@ -747,13 +761,14 @@
     <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.725425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="13.830625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="18.300625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="16.725425" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.830625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:10">
+    <x:row r="2" spans="1:11">
       <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -769,19 +784,22 @@
       <x:c r="F2" s="16" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:10">
+    <x:row r="3" spans="1:11">
       <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="0" t="b">
         <x:v>1</x:v>
@@ -792,19 +810,22 @@
       <x:c r="F3" s="16" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s">
+      <x:c r="G3" s="17">
+        <x:f>(DATE(2017, 10, 3) - E3) / 365</x:f>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>9</x:v>
+      <x:c r="K3" s="0" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:10">
+    <x:row r="4" spans="1:11">
       <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="0" t="b">
         <x:v>0</x:v>
@@ -815,19 +836,22 @@
       <x:c r="F4" s="16" t="n">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s">
+      <x:c r="G4" s="17">
+        <x:f>(DATE(2017, 10, 3) - E4) / 365</x:f>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>12</x:v>
+      <x:c r="K4" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:10">
+    <x:row r="5" spans="1:11">
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="0" t="b">
         <x:v>0</x:v>
@@ -838,32 +862,43 @@
       <x:c r="F5" s="16" t="n">
         <x:v>10000</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="G5" s="17">
+        <x:f>(DATE(2017, 10, 3) - E5) / 365</x:f>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>15</x:v>
+      <x:c r="K5" s="0" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:10">
+    <x:row r="6" spans="1:11">
       <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s"/>
       <x:c r="F6" s="16" t="n">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
-      <x:c r="H6" s="0" t="s">
+      <x:c r="G6" s="17">
+        <x:f>SUBTOTAL(101,[Age])</x:f>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="H7" s="0" t="s">
+    <x:row r="7" spans="1:11">
+      <x:c r="I7" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="H8" s="0">
+    <x:row r="8" spans="1:11">
+      <x:c r="I8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="I9" s="0">
         <x:f>CONCATENATE("Count: ", CountA(Headers[Table Headers]))</x:f>
       </x:c>
     </x:row>

--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -421,6 +421,107 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:dxfs count="3">
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="15" formatCode="d-MMM-yy"/>
+      <x:fill>
+        <x:patternFill patternType="none">
+          <x:fgColor indexed="64"/>
+          <x:bgColor indexed="64"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
+      <x:fill>
+        <x:patternFill patternType="none">
+          <x:fgColor indexed="64"/>
+          <x:bgColor indexed="64"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="165" formatCode="0.00"/>
+      <x:fill>
+        <x:patternFill patternType="none">
+          <x:fgColor indexed="64"/>
+          <x:bgColor indexed="64"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+  </x:dxfs>
 </x:styleSheet>
 </file>
 
@@ -431,9 +532,9 @@
     <x:tableColumn id="1" name="FName" totalsRowLabel="Sum Of Income"/>
     <x:tableColumn id="2" name="LName"/>
     <x:tableColumn id="3" name="Outcast"/>
-    <x:tableColumn id="4" name="DOB"/>
-    <x:tableColumn id="5" name="Income" totalsRowFunction="sum"/>
-    <x:tableColumn id="6" name="Age" totalsRowFunction="average">
+    <x:tableColumn id="4" name="DOB" dataDxfId="0"/>
+    <x:tableColumn id="5" name="Income" totalsRowFunction="sum" dataDxfId="1"/>
+    <x:tableColumn id="6" name="Age" totalsRowFunction="average" dataDxfId="2">
       <x:calculatedColumnFormula>(DATE(2017, 10, 3) - E3) / 365</x:calculatedColumnFormula>
     </x:tableColumn>
   </x:tableColumns>

--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -102,13 +102,11 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF6495ED"/>
-        <x:bgColor rgb="FF6495ED"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>FName</x:t>
   </x:si>
@@ -29,6 +29,9 @@
   </x:si>
   <x:si>
     <x:t>Income</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Age</x:t>
   </x:si>
   <x:si>
     <x:t>Table Headers</x:t>
@@ -71,9 +74,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="2">
+  <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="166" formatCode="0.00"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -102,13 +106,11 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF6495ED"/>
-        <x:bgColor rgb="FF6495ED"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -284,7 +286,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="17">
+  <x:cellStyleXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -336,8 +338,11 @@
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="17">
+  <x:cellXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -403,6 +408,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -410,25 +419,120 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:dxfs count="3">
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="15" formatCode="d-MMM-yy"/>
+      <x:fill>
+        <x:patternFill patternType="none"/>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
+      <x:fill>
+        <x:patternFill patternType="none"/>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="165" formatCode="0.00"/>
+      <x:fill>
+        <x:patternFill patternType="none"/>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+  </x:dxfs>
 </x:styleSheet>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F6" totalsRowCount="1">
-  <x:autoFilter ref="B2:F5"/>
-  <x:tableColumns count="5">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G6" totalsRowCount="1">
+  <x:autoFilter ref="B2:G5"/>
+  <x:tableColumns count="6">
     <x:tableColumn id="1" name="FName" totalsRowLabel="Sum Of Income"/>
     <x:tableColumn id="2" name="LName"/>
     <x:tableColumn id="3" name="Outcast"/>
-    <x:tableColumn id="4" name="DOB"/>
-    <x:tableColumn id="5" name="Income" totalsRowFunction="sum"/>
+    <x:tableColumn id="4" name="DOB" dataDxfId="0"/>
+    <x:tableColumn id="5" name="Income" totalsRowFunction="sum" dataDxfId="1"/>
+    <x:tableColumn id="6" name="Age" totalsRowFunction="average" dataDxfId="2">
+      <x:calculatedColumnFormula>(DATE(2017, 10, 3) - E3) / 365</x:calculatedColumnFormula>
+    </x:tableColumn>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Headers" displayName="Headers" ref="H2:H8" totalsRowCount="1">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Headers" displayName="Headers" ref="I2:I9" totalsRowCount="1">
   <x:tableColumns count="1">
     <x:tableColumn id="1" name="Table Headers" totalsRowFunction="custom">
       <x:totalsRowFormula>CONCATENATE("Count: ", CountA(Headers[Table Headers]))</x:totalsRowFormula>
@@ -439,7 +543,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="J2:J5" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="K2:K5" totalsRowShown="0">
   <x:tableColumns count="1">
     <x:tableColumn id="1" name="Names"/>
   </x:tableColumns>
@@ -747,13 +851,14 @@
     <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.725425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="13.830625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="18.300625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="16.725425" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.830625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:10">
+    <x:row r="2" spans="1:11">
       <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -769,19 +874,22 @@
       <x:c r="F2" s="16" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:10">
+    <x:row r="3" spans="1:11">
       <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="0" t="b">
         <x:v>1</x:v>
@@ -792,19 +900,22 @@
       <x:c r="F3" s="16" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s">
+      <x:c r="G3" s="17">
+        <x:f>(DATE(2017, 10, 3) - E3) / 365</x:f>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>9</x:v>
+      <x:c r="K3" s="0" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:10">
+    <x:row r="4" spans="1:11">
       <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="0" t="b">
         <x:v>0</x:v>
@@ -815,19 +926,22 @@
       <x:c r="F4" s="16" t="n">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s">
+      <x:c r="G4" s="17">
+        <x:f>(DATE(2017, 10, 3) - E4) / 365</x:f>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>12</x:v>
+      <x:c r="K4" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:10">
+    <x:row r="5" spans="1:11">
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="0" t="b">
         <x:v>0</x:v>
@@ -838,32 +952,43 @@
       <x:c r="F5" s="16" t="n">
         <x:v>10000</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="G5" s="17">
+        <x:f>(DATE(2017, 10, 3) - E5) / 365</x:f>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>15</x:v>
+      <x:c r="K5" s="0" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:10">
+    <x:row r="6" spans="1:11">
       <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s"/>
       <x:c r="F6" s="16" t="n">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
-      <x:c r="H6" s="0" t="s">
+      <x:c r="G6" s="17">
+        <x:f>SUBTOTAL(101,[Age])</x:f>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="H7" s="0" t="s">
+    <x:row r="7" spans="1:11">
+      <x:c r="I7" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="H8" s="0">
+    <x:row r="8" spans="1:11">
+      <x:c r="I8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="I9" s="0">
         <x:f>CONCATENATE("Count: ", CountA(Headers[Table Headers]))</x:f>
       </x:c>
     </x:row>

--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -421,94 +421,28 @@
   </x:cellStyles>
   <x:dxfs count="3">
     <x:dxf>
-      <x:font>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-      </x:font>
+      <x:font/>
       <x:numFmt numFmtId="15" formatCode="d-MMM-yy"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border diagonalUp="0" diagonalDown="0">
-        <x:left style="none">
-          <x:color rgb="FF000000"/>
-        </x:left>
-        <x:right style="none">
-          <x:color rgb="FF000000"/>
-        </x:right>
-        <x:top style="none">
-          <x:color rgb="FF000000"/>
-        </x:top>
-        <x:bottom style="none">
-          <x:color rgb="FF000000"/>
-        </x:bottom>
-        <x:diagonal style="none">
-          <x:color rgb="FF000000"/>
-        </x:diagonal>
-      </x:border>
+      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-      </x:font>
+      <x:font/>
       <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border diagonalUp="0" diagonalDown="0">
-        <x:left style="none">
-          <x:color rgb="FF000000"/>
-        </x:left>
-        <x:right style="none">
-          <x:color rgb="FF000000"/>
-        </x:right>
-        <x:top style="none">
-          <x:color rgb="FF000000"/>
-        </x:top>
-        <x:bottom style="none">
-          <x:color rgb="FF000000"/>
-        </x:bottom>
-        <x:diagonal style="none">
-          <x:color rgb="FF000000"/>
-        </x:diagonal>
-      </x:border>
+      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-      </x:font>
+      <x:font/>
       <x:numFmt numFmtId="165" formatCode="0.00"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border diagonalUp="0" diagonalDown="0">
-        <x:left style="none">
-          <x:color rgb="FF000000"/>
-        </x:left>
-        <x:right style="none">
-          <x:color rgb="FF000000"/>
-        </x:right>
-        <x:top style="none">
-          <x:color rgb="FF000000"/>
-        </x:top>
-        <x:bottom style="none">
-          <x:color rgb="FF000000"/>
-        </x:bottom>
-        <x:diagonal style="none">
-          <x:color rgb="FF000000"/>
-        </x:diagonal>
-      </x:border>
+      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -514,7 +514,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G6" totalsRowCount="1">
   <x:autoFilter ref="B2:G5"/>
   <x:tableColumns count="6">
@@ -531,7 +531,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Headers" displayName="Headers" ref="I2:I9" totalsRowCount="1">
   <x:tableColumns count="1">
     <x:tableColumn id="1" name="Table Headers" totalsRowFunction="custom">
@@ -542,7 +542,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="K2:K5" totalsRowShown="0">
   <x:tableColumns count="1">
     <x:tableColumn id="1" name="Names"/>
@@ -998,9 +998,9 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="3">
+    <x:tablePart r:id="rId5"/>
     <x:tablePart r:id="rId7"/>
     <x:tablePart r:id="rId8"/>
-    <x:tablePart r:id="rId10"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -421,28 +421,22 @@
   </x:cellStyles>
   <x:dxfs count="3">
     <x:dxf>
-      <x:font/>
       <x:numFmt numFmtId="15" formatCode="d-MMM-yy"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font/>
       <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font/>
       <x:numFmt numFmtId="165" formatCode="0.00"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -779,7 +779,7 @@
     <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="18.300625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="7.795425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="16.725425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -455,7 +455,7 @@
       <x:calculatedColumnFormula>(DATE(2017, 10, 3) - E3) / 365</x:calculatedColumnFormula>
     </x:tableColumn>
   </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 

--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -422,21 +422,12 @@
   <x:dxfs count="3">
     <x:dxf>
       <x:numFmt numFmtId="15" formatCode="d-MMM-yy"/>
-      <x:fill>
-        <x:patternFill patternType="none"/>
-      </x:fill>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
-      <x:fill>
-        <x:patternFill patternType="none"/>
-      </x:fill>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="165" formatCode="0.00"/>
-      <x:fill>
-        <x:patternFill patternType="none"/>
-      </x:fill>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -293,10 +293,10 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -351,12 +351,12 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">

--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -886,7 +886,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="15" t="s"/>
-      <x:c r="F6" s="16" t="n">
+      <x:c r="F6" s="16">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
       <x:c r="G6" s="17">

--- a/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -765,16 +765,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.890625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.505425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.795425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.520625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.285425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.955425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="8.620625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.595425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="7.215425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="16.725425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="14.555425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.830625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="11.470625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
